--- a/document/3. กลุ่มลูกค้าฐานรากและสนับสนุนนโยบายรัฐ (1).xlsx
+++ b/document/3. กลุ่มลูกค้าฐานรากและสนับสนุนนโยบายรัฐ (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B566BB-84C4-4328-846B-D754149A67A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC458FA-020A-48C0-9F8B-1DFD20BA2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="8" activeTab="11" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="ส่วนขึ้นตรงกลุ่ม 1" sheetId="2" r:id="rId1"/>
@@ -2098,12 +2098,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4000,12 +4000,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9497,12 +9497,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -17192,12 +17192,12 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -18623,12 +18623,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -19534,12 +19534,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -22536,12 +22536,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -27423,12 +27423,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -30891,12 +30891,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -34678,12 +34678,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -38368,12 +38368,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -42184,12 +42184,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
